--- a/POA/中国社会组织_疫情防控平台数据分析/TF_IDF关键词前50.xlsx
+++ b/POA/中国社会组织_疫情防控平台数据分析/TF_IDF关键词前50.xlsx
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.325817553607628</v>
+        <v>0.3473375433517781</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1000293288330211</v>
+        <v>0.1074855509847305</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.09079571501701673</v>
+        <v>0.1016707466402005</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08496949872644154</v>
+        <v>0.09352143243937805</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.07731018305300334</v>
+        <v>0.07303535189391333</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06335683571835941</v>
+        <v>0.06906021759810745</v>
       </c>
     </row>
     <row r="8">
@@ -530,11 +530,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>复工</t>
+          <t>物资</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.06125209310259828</v>
+        <v>0.06197844995734123</v>
       </c>
     </row>
     <row r="9">
@@ -543,11 +543,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>物资</t>
+          <t>口罩</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.05962363588698923</v>
+        <v>0.06053688351721252</v>
       </c>
     </row>
     <row r="10">
@@ -556,11 +556,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>企业</t>
+          <t>社区</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.05878702839726091</v>
+        <v>0.05190653679126701</v>
       </c>
     </row>
     <row r="11">
@@ -569,11 +569,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>口罩</t>
+          <t>慈善</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.05357867337936364</v>
+        <v>0.05066792550194012</v>
       </c>
     </row>
     <row r="12">
@@ -582,11 +582,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>社区</t>
+          <t>志愿者</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0486639841016419</v>
+        <v>0.0470705869871911</v>
       </c>
     </row>
     <row r="13">
@@ -595,11 +595,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>会员</t>
+          <t>做好</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.04729414940935952</v>
+        <v>0.04538367183800991</v>
       </c>
     </row>
     <row r="14">
@@ -608,11 +608,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>慈善</t>
+          <t>商会</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.04562258662557123</v>
+        <v>0.04383202761559097</v>
       </c>
     </row>
     <row r="15">
@@ -621,11 +621,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>商会</t>
+          <t>会员</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.04502553834125273</v>
+        <v>0.0413848433619094</v>
       </c>
     </row>
     <row r="16">
@@ -634,11 +634,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>志愿者</t>
+          <t>捐款</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.04226182400705615</v>
+        <v>0.03901260752026191</v>
       </c>
     </row>
     <row r="17">
@@ -647,11 +647,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>做好</t>
+          <t>企业</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.04196318589854083</v>
+        <v>0.03835171526780358</v>
       </c>
     </row>
     <row r="18">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.03648125931299465</v>
+        <v>0.0359485710874624</v>
       </c>
     </row>
     <row r="19">
@@ -673,11 +673,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>行业协会</t>
+          <t>社工</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.03521486181089394</v>
+        <v>0.03493472027592098</v>
       </c>
     </row>
     <row r="20">
@@ -686,11 +686,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>开展</t>
+          <t>爱心</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.03486488311216098</v>
+        <v>0.0341777508947532</v>
       </c>
     </row>
     <row r="21">
@@ -699,11 +699,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>捐款</t>
+          <t>开展</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.03420029424996785</v>
+        <v>0.03393093013230976</v>
       </c>
     </row>
     <row r="22">
@@ -712,11 +712,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>社工</t>
+          <t>公益</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0315297287808709</v>
+        <v>0.0318607966852661</v>
       </c>
     </row>
     <row r="23">
@@ -725,11 +725,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>公益</t>
+          <t>感染</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.03061931033772251</v>
+        <v>0.03117980696575606</v>
       </c>
     </row>
     <row r="24">
@@ -738,11 +738,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>爱心</t>
+          <t>防护</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.03038542609680593</v>
+        <v>0.03091886276176297</v>
       </c>
     </row>
     <row r="25">
@@ -751,11 +751,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>新冠</t>
+          <t>参与</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.02740755548036408</v>
+        <v>0.03024598358034078</v>
       </c>
     </row>
     <row r="26">
@@ -764,11 +764,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>防护</t>
+          <t>阻击战</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02730659363657348</v>
+        <v>0.02928419219473238</v>
       </c>
     </row>
     <row r="27">
@@ -777,11 +777,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>参与</t>
+          <t>行业协会</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.02689977321176002</v>
+        <v>0.02922447400311007</v>
       </c>
     </row>
     <row r="28">
@@ -790,11 +790,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>阻击战</t>
+          <t>倡议</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.02650225379511659</v>
+        <v>0.0285121976240254</v>
       </c>
     </row>
     <row r="29">
@@ -803,11 +803,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>心理</t>
+          <t>志愿</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.02564445973501627</v>
+        <v>0.02850513011268647</v>
       </c>
     </row>
     <row r="30">
@@ -816,11 +816,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>志愿</t>
+          <t>心理</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02508523090535494</v>
+        <v>0.0270829238481926</v>
       </c>
     </row>
     <row r="31">
@@ -829,11 +829,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>倡议</t>
+          <t>医院</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.02486807305207074</v>
+        <v>0.02688277357216324</v>
       </c>
     </row>
     <row r="32">
@@ -842,11 +842,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>感染</t>
+          <t>医用</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.02465225175217496</v>
+        <v>0.02617976074379953</v>
       </c>
     </row>
     <row r="33">
@@ -855,11 +855,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>医院</t>
+          <t>打赢</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.02445137854690742</v>
+        <v>0.0258330345317576</v>
       </c>
     </row>
     <row r="34">
@@ -868,11 +868,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>提供</t>
+          <t>动员</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.02388457391862249</v>
+        <v>0.02564551325437653</v>
       </c>
     </row>
     <row r="35">
@@ -881,11 +881,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>行业</t>
+          <t>基金会</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.02342052082798083</v>
+        <v>0.02520356270028397</v>
       </c>
     </row>
     <row r="36">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02299050099411029</v>
+        <v>0.02490583312102848</v>
       </c>
     </row>
     <row r="37">
@@ -907,11 +907,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>打赢</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.02272143872716224</v>
+        <v>0.0246494586558595</v>
       </c>
     </row>
     <row r="38">
@@ -920,11 +920,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>医用</t>
+          <t>募捐</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.02271055665228368</v>
+        <v>0.02306884162824384</v>
       </c>
     </row>
     <row r="39">
@@ -933,11 +933,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>有序</t>
+          <t>党员</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.02268726573898735</v>
+        <v>0.02292511914657427</v>
       </c>
     </row>
     <row r="40">
@@ -946,11 +946,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>动员</t>
+          <t>复工</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02267733763090054</v>
+        <v>0.02292360362059303</v>
       </c>
     </row>
     <row r="41">
@@ -959,11 +959,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>基金会</t>
+          <t>消毒液</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02252093060478233</v>
+        <v>0.02284202546721332</v>
       </c>
     </row>
     <row r="42">
@@ -972,11 +972,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>消毒液</t>
+          <t>服务中心</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.02104557616056037</v>
+        <v>0.02283767826981983</v>
       </c>
     </row>
     <row r="43">
@@ -985,11 +985,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>引导</t>
+          <t>有序</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.02097737990585437</v>
+        <v>0.02238577223225879</v>
       </c>
     </row>
     <row r="44">
@@ -998,11 +998,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>倡议书</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.02093000657847139</v>
+        <v>0.02238300876556448</v>
       </c>
     </row>
     <row r="45">
@@ -1011,11 +1011,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>服务中心</t>
+          <t>提供</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.02054904774424301</v>
+        <v>0.02148921233931885</v>
       </c>
     </row>
     <row r="46">
@@ -1024,11 +1024,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>发挥</t>
+          <t>全市</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.02040597216173575</v>
+        <v>0.0210048917986729</v>
       </c>
     </row>
     <row r="47">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>党员</t>
+          <t>引导</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.02013848921036126</v>
+        <v>0.02049873976947957</v>
       </c>
     </row>
     <row r="48">
@@ -1050,11 +1050,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>倡议书</t>
+          <t>发挥</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.01980026481466356</v>
+        <v>0.02019143852514763</v>
       </c>
     </row>
     <row r="49">
@@ -1063,11 +1063,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>单位</t>
+          <t>要求</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.01972512463027144</v>
+        <v>0.01983250363820702</v>
       </c>
     </row>
     <row r="50">
@@ -1076,11 +1076,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>募捐</t>
+          <t>单位</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0197177253027373</v>
+        <v>0.01957695233306424</v>
       </c>
     </row>
     <row r="51">
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01898383459543268</v>
+        <v>0.0195704558220272</v>
       </c>
     </row>
   </sheetData>
